--- a/WebsiteToolbox/testData.xlsx
+++ b/WebsiteToolbox/testData.xlsx
@@ -29,6 +29,30 @@
     <author>sangita saurabh</author>
   </authors>
   <commentList>
+    <comment ref="J7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>sangita saurabh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Enter either "Graphics" or "Non Graphics" and enter file name and file path according to selected file type</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="J30" authorId="0">
       <text>
         <r>
@@ -199,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="683">
   <si>
     <t>Username</t>
   </si>
@@ -330,9 +354,6 @@
     <t>Add New Topic</t>
   </si>
   <si>
-    <t>addNewTopic without attachment</t>
-  </si>
-  <si>
     <t>post Priview of New Topic</t>
   </si>
   <si>
@@ -348,9 +369,6 @@
     <t>Picture Path</t>
   </si>
   <si>
-    <t>Message through automation script</t>
-  </si>
-  <si>
     <t>Read message from excel sheet and enter in Message field</t>
   </si>
   <si>
@@ -442,9 +460,6 @@
   </si>
   <si>
     <t>Reply</t>
-  </si>
-  <si>
-    <t>Category Name1</t>
   </si>
   <si>
     <t>Please enter your username or email address.</t>
@@ -535,9 +550,6 @@
     <t>Updated Message</t>
   </si>
   <si>
-    <t>16/11/1989</t>
-  </si>
-  <si>
     <t>Verify View Attachment User Group Permission</t>
   </si>
   <si>
@@ -584,9 +596,6 @@
   </si>
   <si>
     <t>Username/Email</t>
-  </si>
-  <si>
-    <t>Loogin with Email id</t>
   </si>
   <si>
     <t>docx</t>
@@ -1399,9 +1408,6 @@
   </si>
   <si>
     <t>swamy999</t>
-  </si>
-  <si>
-    <t>Insert image, link, video link through Editor</t>
   </si>
   <si>
     <t>Insert picture through Editor and verify inserted picture after added</t>
@@ -1985,181 +1991,28 @@
     <t>Enter Valid Video URL for Vimeo  and verify inserted link</t>
   </si>
   <si>
-    <t>BCC Functionality on Add New Topic</t>
-  </si>
-  <si>
-    <t>Verify Message</t>
-  </si>
-  <si>
-    <t>Verify message with bold "[b]bolded text[/b]"</t>
-  </si>
-  <si>
-    <t>Verify with Bold_BCC functionality</t>
-  </si>
-  <si>
-    <t>Verify message with bold [b]bolded text[/b]</t>
-  </si>
-  <si>
-    <t>bolded text</t>
-  </si>
-  <si>
-    <t>Verify message with Italic "[i]italicized text[/i]"</t>
-  </si>
-  <si>
-    <t>Verify with Italic_BCC functionality</t>
-  </si>
-  <si>
-    <t>Verify message with Italic [i]italicized text[/i]</t>
-  </si>
-  <si>
-    <t>italicized text</t>
-  </si>
-  <si>
-    <t>Verify message with Underlined "[u]underlined text[/u]"</t>
-  </si>
-  <si>
-    <t>Verify with Underlined_BCC functionality</t>
-  </si>
-  <si>
-    <t>Verify message with Underlined [u]underlined text[/u]</t>
-  </si>
-  <si>
-    <t>underlined text</t>
-  </si>
-  <si>
-    <t>Verify message with Strike "[s]strikethrough text[/s]"</t>
-  </si>
-  <si>
-    <t>Verify with Strike_BCC functionality</t>
-  </si>
-  <si>
-    <t>Verify message with Strike [s]strikethrough text[/s]</t>
-  </si>
-  <si>
-    <t>strikethrough text</t>
-  </si>
-  <si>
-    <t>Verify message with Size  "[style size="15px"]Large Text[/style]"</t>
-  </si>
-  <si>
-    <t>Verify with Size_BCC functionality</t>
-  </si>
-  <si>
-    <t>Verify message with Size  [style size="15px"]Large Text[/style]</t>
-  </si>
-  <si>
-    <t>Large Text</t>
-  </si>
-  <si>
-    <t>Verify message with link "[url=http://example.com]Example[/url]"</t>
-  </si>
-  <si>
-    <t>Verify with Link_BCC functionality</t>
-  </si>
-  <si>
-    <t>Verify message with link [url=http://facebook.com]Facebook[/url]</t>
-  </si>
-  <si>
-    <t>Facebook</t>
+    <t>Post Preview</t>
+  </si>
+  <si>
+    <t>Share Replied post through Twitter</t>
+  </si>
+  <si>
+    <t>Post preview of attached Graphics file while adding new Topic</t>
+  </si>
+  <si>
+    <t>Verify Post Preview of Attached Graphics File</t>
+  </si>
+  <si>
+    <t>Post preview of attached non Graphics file while adding new Topic</t>
+  </si>
+  <si>
+    <t>Verify Post Preview of Attached Non Graphics File</t>
+  </si>
+  <si>
+    <t>Category Name1/File name</t>
   </si>
   <si>
     <t>Insert Picture</t>
-  </si>
-  <si>
-    <t>File name</t>
-  </si>
-  <si>
-    <t>file Type</t>
-  </si>
-  <si>
-    <t>Message 1</t>
-  </si>
-  <si>
-    <t>Verify image after inserting picture of file type jpg through editor</t>
-  </si>
-  <si>
-    <t>Insert Picture of filetype jpg</t>
-  </si>
-  <si>
-    <t>Verify image after inserting picture of filetype png through editor</t>
-  </si>
-  <si>
-    <t>Insert Picture of filetype png</t>
-  </si>
-  <si>
-    <t>Verify image after inserting picture  of file type bmp through editor</t>
-  </si>
-  <si>
-    <t>Insert Picture of filetype bmp</t>
-  </si>
-  <si>
-    <t>C:\Users\sangeeta\Desktop\File\fox_bmp.bmp</t>
-  </si>
-  <si>
-    <t>fox_bmp.bmp</t>
-  </si>
-  <si>
-    <t>bmp</t>
-  </si>
-  <si>
-    <t>Verify image after inserting picture of filetype psd through editor</t>
-  </si>
-  <si>
-    <t>Insert Picture of filetype psd</t>
-  </si>
-  <si>
-    <t>C:\Users\sangeeta\Desktop\File\img-thing.psd</t>
-  </si>
-  <si>
-    <t>img-thing.psd</t>
-  </si>
-  <si>
-    <t>psd</t>
-  </si>
-  <si>
-    <t>Verify image after inserting picture of filetype gif through editor</t>
-  </si>
-  <si>
-    <t>Insert Picture of filetype gif</t>
-  </si>
-  <si>
-    <t>C:\Users\sangeeta\Desktop\File\images_gif.gif</t>
-  </si>
-  <si>
-    <t>images_gif.gif</t>
-  </si>
-  <si>
-    <t>gif</t>
-  </si>
-  <si>
-    <t>Verify image after inserting picture of filetype jpe through editor</t>
-  </si>
-  <si>
-    <t>Insert Picture of filetype jpe</t>
-  </si>
-  <si>
-    <t>C:\Users\sangeeta\Desktop\File\butterflyFlower_jpe.jpe</t>
-  </si>
-  <si>
-    <t>butterflyFlower_jpe.jpe</t>
-  </si>
-  <si>
-    <t>jpe</t>
-  </si>
-  <si>
-    <t>Verify image after inserting picture of filetype jpeg through editor</t>
-  </si>
-  <si>
-    <t>Insert Picture of filetype jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\sangeeta\Desktop\File\tiger_jpeg.jpeg</t>
-  </si>
-  <si>
-    <t>tiger_jpeg.jpeg</t>
-  </si>
-  <si>
-    <t>jpeg</t>
   </si>
   <si>
     <t xml:space="preserve">Insert picture from desktop in the middle on the text and verify inserted picture and message
@@ -2169,12 +2022,21 @@
     <t>insert picture in the middle of text</t>
   </si>
   <si>
+    <t>Message 1</t>
+  </si>
+  <si>
+    <t>File name</t>
+  </si>
+  <si>
+    <t>file Type</t>
+  </si>
+  <si>
+    <t>verify inserted picture and the message</t>
+  </si>
+  <si>
     <t>Insert picture from desktop in the middle of the text</t>
   </si>
   <si>
-    <t>verify inserted picture and the message</t>
-  </si>
-  <si>
     <t>Insert  picture with video link and verify inserted poicture and video link on post page aftter adding new topic</t>
   </si>
   <si>
@@ -2184,29 +2046,253 @@
     <t>Insert picture with video link and verify image and video link</t>
   </si>
   <si>
+    <t>Verify image after inserting picture of filetype png through editor</t>
+  </si>
+  <si>
+    <t>Verify image after inserting picture  of file type bmp through editor</t>
+  </si>
+  <si>
+    <t>Verify image after inserting picture of filetype gif through editor</t>
+  </si>
+  <si>
+    <t>Verify image after inserting picture of filetype jpe through editor</t>
+  </si>
+  <si>
+    <t>Verify image after inserting picture of filetype jpeg through editor</t>
+  </si>
+  <si>
+    <t>Verify image after inserting picture of file type jpg through editor</t>
+  </si>
+  <si>
+    <t>Insert Picture of filetype jpg</t>
+  </si>
+  <si>
+    <t>Insert Picture of filetype png</t>
+  </si>
+  <si>
+    <t>Insert Picture of filetype bmp</t>
+  </si>
+  <si>
+    <t>Insert Picture of filetype gif</t>
+  </si>
+  <si>
+    <t>Insert Picture of filetype jpe</t>
+  </si>
+  <si>
+    <t>Insert Picture of filetype jpeg</t>
+  </si>
+  <si>
+    <t>Insert Picture of filetype psd</t>
+  </si>
+  <si>
+    <t>Verify image after inserting picture of filetype psd through editor</t>
+  </si>
+  <si>
+    <t>bmp</t>
+  </si>
+  <si>
+    <t>psd</t>
+  </si>
+  <si>
+    <t>gif</t>
+  </si>
+  <si>
+    <t>jpe</t>
+  </si>
+  <si>
+    <t>jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\sangeeta\Desktop\File\fox_bmp.bmp</t>
+  </si>
+  <si>
+    <t>fox_bmp.bmp</t>
+  </si>
+  <si>
+    <t>C:\Users\sangeeta\Desktop\File\img-thing.psd</t>
+  </si>
+  <si>
+    <t>img-thing.psd</t>
+  </si>
+  <si>
+    <t>C:\Users\sangeeta\Desktop\File\images_gif.gif</t>
+  </si>
+  <si>
+    <t>images_gif.gif</t>
+  </si>
+  <si>
+    <t>C:\Users\sangeeta\Desktop\File\tiger_jpeg.jpeg</t>
+  </si>
+  <si>
+    <t>tiger_jpeg.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\sangeeta\Desktop\File\butterflyFlower_jpe.jpe</t>
+  </si>
+  <si>
+    <t>butterflyFlower_jpe.jpe</t>
+  </si>
+  <si>
     <t>Verify error message while inserting non graphics file</t>
   </si>
   <si>
+    <t>Verify error message while inserting invalid file which is not added in file types in backend</t>
+  </si>
+  <si>
     <t>Verify Error message</t>
   </si>
   <si>
+    <t>C:\Users\sangeeta\Desktop\File\test_pdf.pdf</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
     <t>Invalid File Type</t>
   </si>
   <si>
-    <t>Verify error message while inserting invalid file which is not added in file types in backend</t>
-  </si>
-  <si>
-    <t>C:\Users\sangeeta\Desktop\File\test_pdf.pdf</t>
-  </si>
-  <si>
-    <t>pdf</t>
+    <t>BCC Functionality on Add New Topic</t>
+  </si>
+  <si>
+    <t>Verify message with bold "[b]bolded text[/b]"</t>
+  </si>
+  <si>
+    <t>Verify with Bold_BCC functionality</t>
+  </si>
+  <si>
+    <t>Verify message with Italic "[i]italicized text[/i]"</t>
+  </si>
+  <si>
+    <t>Verify message with Underlined "[u]underlined text[/u]"</t>
+  </si>
+  <si>
+    <t>Verify message with Strike "[s]strikethrough text[/s]"</t>
+  </si>
+  <si>
+    <t>Verify with Italic_BCC functionality</t>
+  </si>
+  <si>
+    <t>Verify with Underlined_BCC functionality</t>
+  </si>
+  <si>
+    <t>Verify with Strike_BCC functionality</t>
+  </si>
+  <si>
+    <t>Verify message with Size  "[style size="15px"]Large Text[/style]"</t>
+  </si>
+  <si>
+    <t>Verify message with link "[url=http://example.com]Example[/url]"</t>
+  </si>
+  <si>
+    <t>Verify message with Size  [style size="15px"]Large Text[/style]</t>
+  </si>
+  <si>
+    <t>Verify message with Strike [s]strikethrough text[/s]</t>
+  </si>
+  <si>
+    <t>Verify message with Underlined [u]underlined text[/u]</t>
+  </si>
+  <si>
+    <t>Verify message with Italic [i]italicized text[/i]</t>
+  </si>
+  <si>
+    <t>Verify message with bold [b]bolded text[/b]</t>
+  </si>
+  <si>
+    <t>Verify with Size_BCC functionality</t>
+  </si>
+  <si>
+    <t>Verify with Link_BCC functionality</t>
+  </si>
+  <si>
+    <t>Verify Message</t>
+  </si>
+  <si>
+    <t>bolded text</t>
+  </si>
+  <si>
+    <t>italicized text</t>
+  </si>
+  <si>
+    <t>underlined text</t>
+  </si>
+  <si>
+    <t>strikethrough text</t>
+  </si>
+  <si>
+    <t>Large Text</t>
+  </si>
+  <si>
+    <t>Verify message with link [url=http://facebook.com]Facebook[/url]</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>addNewTopic with hindi message</t>
+  </si>
+  <si>
+    <t>कृपया message सावधानीपूर्वक पढ़ें</t>
+  </si>
+  <si>
+    <t>हमारी सेवाओं का उपयोग करके, आप इन शर्तों से सहमत हो रहे हैं. कृपया उन्‍हें सावधानीपूर्वक पढ़ें.
+हमारी सेवाओं का उपयोग करना
+आपको किसी सेवा के अंतर्गत उपलब्ध कराई गई किसी भी नीति का पालन करना होगा.</t>
+  </si>
+  <si>
+    <t>Insert Emotion using text</t>
+  </si>
+  <si>
+    <t>:)</t>
+  </si>
+  <si>
+    <t>:love:</t>
+  </si>
+  <si>
+    <t>Pin/unpin Topic</t>
+  </si>
+  <si>
+    <t>pin any topic from topic listing page under category and verify pin functionality</t>
+  </si>
+  <si>
+    <t>Insert  link through Editor</t>
+  </si>
+  <si>
+    <t>Login with Email id</t>
+  </si>
+  <si>
+    <t>Admin Username</t>
+  </si>
+  <si>
+    <t>Admin Password</t>
+  </si>
+  <si>
+    <t>Insert text for emotion in message field and verify emotions on post page afer adding new topic</t>
+  </si>
+  <si>
+    <t>:cool:</t>
+  </si>
+  <si>
+    <t>:crazy:</t>
+  </si>
+  <si>
+    <t>Insert Emotion using text in Subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify emotion in floating header after inserting text for emotion in Subject </t>
+  </si>
+  <si>
+    <t>Verify emotion after inserting text for emotion</t>
+  </si>
+  <si>
+    <t>Insert text for emotion in subject field and verify emotions on floating header on post page after adding new topic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2504,11 +2590,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -2621,7 +2713,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2786,17 +2878,14 @@
     <xf numFmtId="0" fontId="46" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3104,7 +3193,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3239,10 +3328,10 @@
         <v>18</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>17</v>
@@ -3256,7 +3345,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F10" s="20"/>
     </row>
@@ -3271,7 +3360,7 @@
         <v>35</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F11" s="21"/>
     </row>
@@ -3283,7 +3372,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F12" s="22"/>
     </row>
@@ -3298,7 +3387,7 @@
         <v>35</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F13" s="23"/>
     </row>
@@ -3316,7 +3405,7 @@
         <v>35</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F14" s="24"/>
     </row>
@@ -3328,13 +3417,13 @@
         <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F15" s="25"/>
     </row>
@@ -3352,16 +3441,16 @@
         <v>35</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F16" s="26"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F17" s="27"/>
     </row>
@@ -3371,19 +3460,19 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>17</v>
@@ -3391,7 +3480,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>3</v>
@@ -3400,20 +3489,20 @@
         <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>128</v>
+        <v>673</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>3</v>
@@ -3442,21 +3531,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.85546875" style="9" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="20.42578125" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.7109375" style="5" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="28.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="40.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="64.5703125" style="5" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="15.5703125" style="5" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="38" style="5" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="44" style="5" customWidth="1" collapsed="1"/>
@@ -3466,7 +3555,7 @@
     <col min="12" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>42</v>
       </c>
@@ -3489,19 +3578,19 @@
         <v>38</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="I1" s="85" t="s">
-        <v>81</v>
+        <v>591</v>
       </c>
       <c r="J1" s="85"/>
       <c r="K1" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>43</v>
+        <v>664</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
@@ -3510,21 +3599,21 @@
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>40</v>
+        <v>665</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>49</v>
+        <v>666</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>41</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -3536,7 +3625,7 @@
         <v>40</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>41</v>
@@ -3544,7 +3633,7 @@
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -3556,21 +3645,21 @@
         <v>40</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
@@ -3582,15 +3671,67 @@
         <v>40</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>0</v>
@@ -3599,7 +3740,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>37</v>
@@ -3608,22 +3749,22 @@
         <v>39</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K8" s="86"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>3</v>
@@ -3635,7 +3776,7 @@
         <v>40</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>41</v>
@@ -3643,7 +3784,7 @@
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>3</v>
@@ -3655,18 +3796,18 @@
         <v>40</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>3</v>
@@ -3678,18 +3819,18 @@
         <v>40</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>3</v>
@@ -3701,7 +3842,7 @@
         <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>41</v>
@@ -3709,7 +3850,7 @@
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>3</v>
@@ -3721,18 +3862,18 @@
         <v>40</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>41</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>3</v>
@@ -3744,13 +3885,13 @@
         <v>40</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>41</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I14" s="38" t="s">
         <v>11</v>
@@ -3761,7 +3902,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>3</v>
@@ -3773,18 +3914,18 @@
         <v>40</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>41</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>70</v>
+        <v>586</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>0</v>
@@ -3793,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>39</v>
@@ -3803,16 +3944,16 @@
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3821,7 +3962,7 @@
     </row>
     <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>3</v>
@@ -3836,12 +3977,12 @@
         <v>41</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>3</v>
@@ -3853,10 +3994,10 @@
         <v>40</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H22" s="87" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3864,7 +4005,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>3</v>
@@ -3876,12 +4017,12 @@
         <v>41</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>3</v>
@@ -3896,12 +4037,12 @@
         <v>41</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>3</v>
@@ -3916,15 +4057,15 @@
         <v>41</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>3</v>
@@ -3939,12 +4080,12 @@
         <v>41</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>3</v>
@@ -3959,12 +4100,12 @@
         <v>41</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>3</v>
@@ -3976,7 +4117,7 @@
         <v>41</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>19</v>
@@ -3987,7 +4128,7 @@
     </row>
     <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>3</v>
@@ -3996,16 +4137,16 @@
         <v>3</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>19</v>
@@ -4016,7 +4157,7 @@
     </row>
     <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>3</v>
@@ -4031,12 +4172,12 @@
         <v>41</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G30" s="72"/>
       <c r="H30" s="72"/>
       <c r="J30" s="5" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>3</v>
@@ -4044,7 +4185,7 @@
     </row>
     <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>3</v>
@@ -4061,15 +4202,15 @@
     </row>
     <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>3</v>
@@ -4078,7 +4219,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>41</v>
@@ -4089,7 +4230,7 @@
     </row>
     <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>3</v>
@@ -4104,12 +4245,12 @@
         <v>41</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B35" s="72" t="s">
         <v>3</v>
@@ -4118,49 +4259,49 @@
         <v>3</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F35" s="72" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="F40" s="72" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="F40" s="72" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>529</v>
-      </c>
       <c r="E41" s="5" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="F41" s="72" t="s">
         <v>41</v>
@@ -4168,10 +4309,10 @@
     </row>
     <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F42" s="72" t="s">
         <v>41</v>
@@ -4179,10 +4320,10 @@
     </row>
     <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F43" s="72" t="s">
         <v>41</v>
@@ -4190,10 +4331,10 @@
     </row>
     <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F44" s="72" t="s">
         <v>41</v>
@@ -4201,222 +4342,131 @@
     </row>
     <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G45" s="90" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="F46" s="72" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G46" s="90" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>534</v>
+        <v>528</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="F48" s="72" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="F49" s="72" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="F50" s="72" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="5" t="s">
+      <c r="D51" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="F51" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="G51" s="88" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="F48" s="72" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="F49" s="72" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="F50" s="72" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="F51" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="G51" s="88" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
-        <v>591</v>
-      </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="H59" s="10"/>
-      <c r="I59" s="85"/>
-      <c r="J59" s="85"/>
-      <c r="K59" s="10"/>
-    </row>
-    <row r="60" spans="1:11" s="72" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="73" t="s">
-        <v>593</v>
-      </c>
-      <c r="B60" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="72" t="s">
-        <v>594</v>
-      </c>
-      <c r="E60" s="72" t="s">
-        <v>595</v>
-      </c>
-      <c r="F60" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="G60" s="72" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="72" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="73" t="s">
-        <v>597</v>
-      </c>
-      <c r="D61" s="72" t="s">
-        <v>598</v>
-      </c>
-      <c r="E61" s="72" t="s">
-        <v>599</v>
-      </c>
-      <c r="F61" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="G61" s="72" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="72" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="73" t="s">
-        <v>601</v>
-      </c>
-      <c r="D62" s="72" t="s">
-        <v>602</v>
-      </c>
-      <c r="E62" s="72" t="s">
-        <v>603</v>
-      </c>
-      <c r="F62" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="G62" s="72" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="72" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="73" t="s">
-        <v>605</v>
-      </c>
-      <c r="D63" s="72" t="s">
-        <v>606</v>
-      </c>
-      <c r="E63" s="72" t="s">
-        <v>607</v>
-      </c>
-      <c r="F63" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="G63" s="72" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="72" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="73" t="s">
-        <v>609</v>
-      </c>
-      <c r="D64" s="72" t="s">
-        <v>610</v>
-      </c>
-      <c r="E64" s="72" t="s">
-        <v>611</v>
-      </c>
-      <c r="F64" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="G64" s="72" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" s="72" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="73" t="s">
-        <v>613</v>
-      </c>
-      <c r="D65" s="72" t="s">
-        <v>614</v>
-      </c>
-      <c r="E65" s="72" t="s">
-        <v>615</v>
-      </c>
-      <c r="F65" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="G65" s="72" t="s">
-        <v>616</v>
+      <c r="C54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="F54" s="72" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -4435,10 +4485,11 @@
     <hyperlink ref="D49" r:id="rId12" display="http://automation.forumchitchat.com/post/follow-topic-8101814?pid=1292176979"/>
     <hyperlink ref="D50" r:id="rId13" location="post1292105376" display="http://automation.forumchitchat.com/post/testing-8094100?pid=1292105376 - post1292105376"/>
     <hyperlink ref="D51" r:id="rId14" display="http://automation.forumchitchat.com/post/insert-emotions-8101759?pid=1292176632"/>
+    <hyperlink ref="D54" r:id="rId15" display="http://automation.forumchitchat.com/post/un-follow-topic-8101815?pid=1292176980"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
-  <legacyDrawing r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
+  <legacyDrawing r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -4447,7 +4498,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4470,27 +4521,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>111</v>
-      </c>
+      <c r="A4" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4527,25 +4576,25 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>86</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>36</v>
@@ -4554,42 +4603,42 @@
         <v>39</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L1" s="11" t="s">
         <v>30</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F2" s="28">
         <v>32300</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>40</v>
@@ -4598,28 +4647,28 @@
         <v>41</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="L2" s="40" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>40</v>
@@ -4628,31 +4677,31 @@
         <v>41</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K3" s="41" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="L3" s="27"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F4" s="28">
         <v>32300</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>40</v>
@@ -4661,34 +4710,34 @@
         <v>41</v>
       </c>
       <c r="L4" s="42" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="N4" s="60" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D5" s="44"/>
       <c r="E5" s="43" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F5" s="45">
         <v>32300</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>40</v>
@@ -4699,34 +4748,34 @@
       <c r="J5" s="44"/>
       <c r="K5" s="44"/>
       <c r="L5" s="42" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="N5" s="61" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="46" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F6" s="45">
         <v>32301</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H6" s="43" t="s">
         <v>40</v>
@@ -4737,36 +4786,36 @@
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
       <c r="L6" s="42" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="N6" s="62" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F7" s="45">
         <v>32302</v>
       </c>
       <c r="G7" s="43" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H7" s="43" t="s">
         <v>40</v>
@@ -4777,36 +4826,36 @@
       <c r="J7" s="44"/>
       <c r="K7" s="44"/>
       <c r="L7" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="N7" s="63" t="s">
         <v>201</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="N7" s="63" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F8" s="45">
         <v>32303</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H8" s="43" t="s">
         <v>40</v>
@@ -4817,36 +4866,36 @@
       <c r="J8" s="44"/>
       <c r="K8" s="44"/>
       <c r="L8" s="47" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="N8" s="64" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F9" s="45">
         <v>32304</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H9" s="43" t="s">
         <v>40</v>
@@ -4857,31 +4906,31 @@
       <c r="J9" s="44"/>
       <c r="K9" s="44"/>
       <c r="L9" s="65" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="N9" s="27"/>
     </row>
     <row r="10" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F10" s="45">
         <v>42532</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H10" s="43" t="s">
         <v>40</v>
@@ -4892,36 +4941,36 @@
       <c r="J10" s="44"/>
       <c r="K10" s="44"/>
       <c r="L10" s="43" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="N10" s="66" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F11" s="45">
         <v>42533</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>40</v>
@@ -4932,35 +4981,35 @@
       <c r="J11" s="44"/>
       <c r="K11" s="44"/>
       <c r="L11" s="43" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="N11" s="67" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="O11" s="27"/>
     </row>
     <row r="12" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="45">
         <v>42533</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H12" s="43" t="s">
         <v>40</v>
@@ -4969,32 +5018,32 @@
         <v>41</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="N12" s="27"/>
     </row>
     <row r="13" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E13" s="48" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F13" s="45"/>
       <c r="G13" s="43" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H13" s="43" t="s">
         <v>40</v>
@@ -5004,28 +5053,28 @@
       </c>
       <c r="K13" s="49"/>
       <c r="L13" s="50" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="N13" s="27"/>
     </row>
     <row r="14" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E14" s="48" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F14" s="28">
         <v>32300</v>
@@ -5037,34 +5086,34 @@
         <v>41</v>
       </c>
       <c r="L14" s="42" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M14" s="51" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="N14" s="27"/>
     </row>
     <row r="15" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C15" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>237</v>
-      </c>
       <c r="E15" s="48" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F15" s="28">
         <v>32300</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H15" s="48" t="s">
         <v>40</v>
@@ -5073,7 +5122,7 @@
         <v>41</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5082,7 +5131,7 @@
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -5103,55 +5152,55 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="F19" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="G19" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="53" t="s">
         <v>241</v>
-      </c>
-      <c r="B19" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>243</v>
-      </c>
-      <c r="E19" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="F19" s="53" t="s">
-        <v>245</v>
-      </c>
-      <c r="G19" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" s="53" t="s">
-        <v>246</v>
       </c>
       <c r="I19" s="53" t="s">
         <v>39</v>
       </c>
       <c r="J19" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="K19" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="L19" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="M19" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="N19" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="O19" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="K19" s="54" t="s">
+      <c r="P19" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="L19" s="53" t="s">
-        <v>249</v>
-      </c>
-      <c r="M19" s="53" t="s">
-        <v>250</v>
-      </c>
-      <c r="N19" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="O19" s="53" t="s">
-        <v>252</v>
-      </c>
-      <c r="P19" s="53" t="s">
-        <v>253</v>
-      </c>
       <c r="Q19" s="53" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="R19" s="53" t="s">
         <v>30</v>
@@ -5165,25 +5214,25 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F21" s="28">
         <v>32300</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>40</v>
@@ -5192,37 +5241,37 @@
         <v>41</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="N21" s="27"/>
       <c r="Q21" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F22" s="7">
         <v>32300</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>40</v>
@@ -5231,37 +5280,37 @@
         <v>41</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="N22" s="27"/>
       <c r="Q22" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="R22" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F23" s="7">
         <v>32300</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>40</v>
@@ -5270,40 +5319,40 @@
         <v>41</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="N23" s="27"/>
       <c r="Q23" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F24" s="7">
         <v>32300</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>40</v>
@@ -5312,39 +5361,39 @@
         <v>41</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F25" s="28">
         <v>32300</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>40</v>
@@ -5353,37 +5402,37 @@
         <v>41</v>
       </c>
       <c r="K25" s="17" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="N25" s="27"/>
       <c r="Q25" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F26" s="28">
         <v>32300</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>40</v>
@@ -5392,20 +5441,20 @@
         <v>41</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="N26" s="8"/>
       <c r="Q26" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="R26" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="55"/>
       <c r="B31" s="55" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C31" s="55"/>
       <c r="D31" s="55"/>
@@ -5426,55 +5475,55 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="B33" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="F33" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="G33" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" s="53" t="s">
         <v>241</v>
-      </c>
-      <c r="B33" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="C33" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="53" t="s">
-        <v>243</v>
-      </c>
-      <c r="E33" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="F33" s="53" t="s">
-        <v>245</v>
-      </c>
-      <c r="G33" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="H33" s="53" t="s">
-        <v>246</v>
       </c>
       <c r="I33" s="53" t="s">
         <v>39</v>
       </c>
       <c r="J33" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="K33" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="L33" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="M33" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="N33" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="O33" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="K33" s="54" t="s">
+      <c r="P33" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="L33" s="53" t="s">
-        <v>249</v>
-      </c>
-      <c r="M33" s="53" t="s">
-        <v>250</v>
-      </c>
-      <c r="N33" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="O33" s="53" t="s">
-        <v>252</v>
-      </c>
-      <c r="P33" s="53" t="s">
-        <v>253</v>
-      </c>
       <c r="Q33" s="53" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="R33" s="53" t="s">
         <v>30</v>
@@ -5482,22 +5531,22 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F34" s="7">
         <v>32300</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>40</v>
@@ -5507,30 +5556,30 @@
       </c>
       <c r="N34" s="79"/>
       <c r="Q34" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="R34" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F35" s="7">
         <v>32300</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>40</v>
@@ -5540,30 +5589,30 @@
       </c>
       <c r="N35" s="68"/>
       <c r="Q35" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="R35" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F36" s="7">
         <v>32300</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>40</v>
@@ -5573,30 +5622,30 @@
       </c>
       <c r="N36" s="69"/>
       <c r="Q36" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="R36" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F37" s="7">
         <v>32300</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>40</v>
@@ -5606,30 +5655,30 @@
       </c>
       <c r="N37" s="70"/>
       <c r="Q37" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="R37" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F38" s="7">
         <v>32300</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>40</v>
@@ -5639,30 +5688,30 @@
       </c>
       <c r="N38" s="27"/>
       <c r="Q38" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="R38" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F39" s="7">
         <v>32300</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>40</v>
@@ -5671,16 +5720,16 @@
         <v>41</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="R39" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="55"/>
       <c r="B43" s="55" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C43" s="55"/>
       <c r="D43" s="55"/>
@@ -5701,55 +5750,55 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="B45" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="C45" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="E45" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="F45" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="G45" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="H45" s="53" t="s">
         <v>241</v>
-      </c>
-      <c r="B45" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="C45" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="53" t="s">
-        <v>243</v>
-      </c>
-      <c r="E45" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="F45" s="53" t="s">
-        <v>245</v>
-      </c>
-      <c r="G45" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="H45" s="53" t="s">
-        <v>246</v>
       </c>
       <c r="I45" s="53" t="s">
         <v>39</v>
       </c>
       <c r="J45" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="K45" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="L45" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="M45" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="N45" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="O45" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="K45" s="54" t="s">
+      <c r="P45" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="L45" s="53" t="s">
-        <v>249</v>
-      </c>
-      <c r="M45" s="53" t="s">
-        <v>250</v>
-      </c>
-      <c r="N45" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="O45" s="53" t="s">
-        <v>252</v>
-      </c>
-      <c r="P45" s="53" t="s">
-        <v>253</v>
-      </c>
       <c r="Q45" s="53" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="R45" s="53" t="s">
         <v>30</v>
@@ -5757,22 +5806,22 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>40</v>
@@ -5782,30 +5831,30 @@
       </c>
       <c r="N46" s="80"/>
       <c r="Q46" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="R46" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>40</v>
@@ -5815,30 +5864,30 @@
       </c>
       <c r="N47" s="81"/>
       <c r="Q47" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="R47" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>40</v>
@@ -5848,30 +5897,30 @@
       </c>
       <c r="N48" s="82"/>
       <c r="Q48" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="R48" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>40</v>
@@ -5881,30 +5930,30 @@
       </c>
       <c r="N49" s="83"/>
       <c r="Q49" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="R49" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>40</v>
@@ -5914,30 +5963,30 @@
       </c>
       <c r="N50" s="27"/>
       <c r="Q50" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="R50" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>40</v>
@@ -5947,16 +5996,16 @@
       </c>
       <c r="N51" s="84"/>
       <c r="Q51" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="R51" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="55"/>
       <c r="B54" s="55" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C54" s="55"/>
       <c r="D54" s="55"/>
@@ -5977,55 +6026,55 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="B56" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="C56" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="E56" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="F56" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="G56" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="H56" s="53" t="s">
         <v>241</v>
-      </c>
-      <c r="B56" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="C56" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D56" s="53" t="s">
-        <v>243</v>
-      </c>
-      <c r="E56" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="F56" s="53" t="s">
-        <v>245</v>
-      </c>
-      <c r="G56" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="H56" s="53" t="s">
-        <v>246</v>
       </c>
       <c r="I56" s="53" t="s">
         <v>39</v>
       </c>
       <c r="J56" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="K56" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="L56" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="M56" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="N56" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="O56" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="K56" s="54" t="s">
+      <c r="P56" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="L56" s="53" t="s">
-        <v>249</v>
-      </c>
-      <c r="M56" s="53" t="s">
-        <v>250</v>
-      </c>
-      <c r="N56" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="O56" s="53" t="s">
-        <v>252</v>
-      </c>
-      <c r="P56" s="53" t="s">
-        <v>253</v>
-      </c>
       <c r="Q56" s="53" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="R56" s="53" t="s">
         <v>30</v>
@@ -6033,19 +6082,19 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F57" s="7">
         <v>32300</v>
@@ -6058,27 +6107,27 @@
       </c>
       <c r="N57" s="27"/>
       <c r="Q57" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="R57" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F58" s="7">
         <v>32300</v>
@@ -6091,27 +6140,27 @@
       </c>
       <c r="N58" s="27"/>
       <c r="Q58" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="R58" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F59" s="7">
         <v>32300</v>
@@ -6124,27 +6173,27 @@
       </c>
       <c r="N59" s="27"/>
       <c r="Q59" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="R59" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F60" s="7">
         <v>32300</v>
@@ -6157,27 +6206,27 @@
       </c>
       <c r="N60" s="27"/>
       <c r="Q60" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="R60" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F61" s="7">
         <v>32300</v>
@@ -6190,27 +6239,27 @@
       </c>
       <c r="N61" s="27"/>
       <c r="Q61" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="R61" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F62" s="7">
         <v>32300</v>
@@ -6223,10 +6272,10 @@
       </c>
       <c r="N62" s="27"/>
       <c r="Q62" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="R62" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
@@ -6235,7 +6284,7 @@
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="55"/>
       <c r="B65" s="55" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C65" s="55"/>
       <c r="D65" s="55"/>
@@ -6256,55 +6305,55 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="B67" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="C67" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="D67" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="E67" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="F67" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="G67" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="H67" s="53" t="s">
         <v>241</v>
-      </c>
-      <c r="B67" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="C67" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D67" s="53" t="s">
-        <v>243</v>
-      </c>
-      <c r="E67" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="F67" s="53" t="s">
-        <v>245</v>
-      </c>
-      <c r="G67" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="H67" s="53" t="s">
-        <v>246</v>
       </c>
       <c r="I67" s="53" t="s">
         <v>39</v>
       </c>
       <c r="J67" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="K67" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="L67" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="M67" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="N67" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="O67" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="K67" s="54" t="s">
+      <c r="P67" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="L67" s="53" t="s">
-        <v>249</v>
-      </c>
-      <c r="M67" s="53" t="s">
-        <v>250</v>
-      </c>
-      <c r="N67" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="O67" s="53" t="s">
-        <v>252</v>
-      </c>
-      <c r="P67" s="53" t="s">
-        <v>253</v>
-      </c>
       <c r="Q67" s="53" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="R67" s="53" t="s">
         <v>30</v>
@@ -6312,25 +6361,25 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F68" s="7">
         <v>32300</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>40</v>
@@ -6340,30 +6389,30 @@
       </c>
       <c r="N68" s="27"/>
       <c r="R68" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F69" s="7">
         <v>32300</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H69" s="7" t="s">
         <v>40</v>
@@ -6373,30 +6422,30 @@
       </c>
       <c r="N69" s="27"/>
       <c r="R69" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F70" s="7">
         <v>32300</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H70" s="7" t="s">
         <v>40</v>
@@ -6406,30 +6455,30 @@
       </c>
       <c r="N70" s="27"/>
       <c r="R70" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F71" s="7">
         <v>32300</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H71" s="7" t="s">
         <v>40</v>
@@ -6439,30 +6488,30 @@
       </c>
       <c r="N71" s="27"/>
       <c r="R71" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F72" s="7">
         <v>32300</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H72" s="7" t="s">
         <v>40</v>
@@ -6472,30 +6521,30 @@
       </c>
       <c r="N72" s="27"/>
       <c r="R72" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F73" s="7">
         <v>32300</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>40</v>
@@ -6504,77 +6553,77 @@
         <v>41</v>
       </c>
       <c r="R73" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
@@ -6589,13 +6638,13 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="59" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B84" s="59" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C84" s="59" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D84" s="59" t="s">
         <v>18</v>
@@ -6604,186 +6653,186 @@
         <v>39</v>
       </c>
       <c r="F84" s="59" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G84" s="59" t="s">
         <v>30</v>
       </c>
       <c r="H84" s="59"/>
       <c r="I84" s="59" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="71" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B94" s="71" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C94" s="71" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -6859,8 +6908,8 @@
   <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6882,7 +6931,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -6897,19 +6946,19 @@
         <v>37</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>17</v>
@@ -6917,7 +6966,7 @@
     </row>
     <row r="2" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
@@ -6926,129 +6975,129 @@
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>153</v>
-      </c>
       <c r="I3" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>3</v>
@@ -7057,171 +7106,194 @@
         <v>3</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>41</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="93" t="s">
+        <v>672</v>
+      </c>
+      <c r="B16" s="93"/>
+    </row>
+    <row r="17" spans="1:9" s="72" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="73" t="s">
+        <v>398</v>
+      </c>
+      <c r="D17" s="72" t="s">
         <v>399</v>
       </c>
-      <c r="B16" s="93"/>
-    </row>
-    <row r="17" spans="1:9" s="72" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="73" t="s">
-        <v>404</v>
-      </c>
-      <c r="D17" s="72" t="s">
-        <v>405</v>
-      </c>
       <c r="E17" s="72" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F17" s="72" t="s">
         <v>41</v>
       </c>
       <c r="H17" s="74" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="I17" s="72" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="72" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="73" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D18" s="72" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="E18" s="72" t="s">
+        <v>405</v>
+      </c>
+      <c r="F18" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="74" t="s">
+        <v>406</v>
+      </c>
+      <c r="I18" s="72" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="72" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="73"/>
+      <c r="E19" s="75"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+    </row>
+    <row r="20" spans="1:9" s="72" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="73"/>
+      <c r="E20" s="75"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="75"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="72" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="73" t="s">
         <v>411</v>
       </c>
-      <c r="F18" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="74" t="s">
+      <c r="B22" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="72" t="s">
         <v>412</v>
       </c>
-      <c r="I18" s="72" t="s">
+      <c r="E22" s="72" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="73"/>
-      <c r="H19" s="74"/>
-    </row>
-    <row r="20" spans="1:9" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="73"/>
-      <c r="H20" s="74"/>
-    </row>
-    <row r="21" spans="1:9" s="72" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
-      <c r="E21" s="75"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-    </row>
-    <row r="22" spans="1:9" s="72" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
-      <c r="E22" s="75"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="75"/>
-    </row>
-    <row r="23" spans="1:9" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>428</v>
+      <c r="F22" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="72" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="72" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="73" t="s">
+        <v>415</v>
+      </c>
+      <c r="D23" s="72" t="s">
+        <v>416</v>
+      </c>
+      <c r="E23" s="72" t="s">
+        <v>415</v>
+      </c>
+      <c r="F23" s="72" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="72" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="73" t="s">
         <v>417</v>
       </c>
-      <c r="B24" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="72" t="s">
-        <v>3</v>
-      </c>
       <c r="D24" s="72" t="s">
         <v>418</v>
       </c>
@@ -7231,66 +7303,75 @@
       <c r="F24" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="72" t="s">
-        <v>420</v>
-      </c>
     </row>
     <row r="25" spans="1:9" s="72" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="73" t="s">
+        <v>420</v>
+      </c>
+      <c r="D25" s="72" t="s">
         <v>421</v>
       </c>
-      <c r="D25" s="72" t="s">
-        <v>422</v>
-      </c>
-      <c r="E25" s="72" t="s">
-        <v>421</v>
+      <c r="E25" s="75" t="s">
+        <v>420</v>
       </c>
       <c r="F25" s="72" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" s="72" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="G25" s="72" t="s">
+        <v>423</v>
+      </c>
+      <c r="H25" s="72" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="72" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="73" t="s">
-        <v>423</v>
+        <v>676</v>
       </c>
       <c r="D26" s="72" t="s">
-        <v>424</v>
-      </c>
-      <c r="E26" s="72" t="s">
-        <v>425</v>
+        <v>667</v>
+      </c>
+      <c r="E26" s="75" t="s">
+        <v>681</v>
       </c>
       <c r="F26" s="72" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" s="72" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="G26" s="72" t="s">
+        <v>668</v>
+      </c>
+      <c r="H26" s="72" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="72" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="73" t="s">
-        <v>426</v>
+        <v>682</v>
       </c>
       <c r="D27" s="72" t="s">
-        <v>427</v>
+        <v>679</v>
       </c>
       <c r="E27" s="75" t="s">
-        <v>426</v>
+        <v>680</v>
       </c>
       <c r="F27" s="72" t="s">
         <v>41</v>
       </c>
       <c r="G27" s="72" t="s">
-        <v>429</v>
+        <v>678</v>
       </c>
       <c r="H27" s="72" t="s">
-        <v>430</v>
+        <v>677</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>3</v>
@@ -7299,10 +7380,10 @@
         <v>3</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>41</v>
@@ -7311,7 +7392,7 @@
     </row>
     <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>3</v>
@@ -7320,10 +7401,10 @@
         <v>3</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>41</v>
@@ -7332,7 +7413,7 @@
     </row>
     <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>3</v>
@@ -7341,10 +7422,10 @@
         <v>3</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>41</v>
@@ -7353,7 +7434,7 @@
     </row>
     <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>3</v>
@@ -7362,10 +7443,10 @@
         <v>3</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>41</v>
@@ -7374,7 +7455,7 @@
     </row>
     <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>3</v>
@@ -7383,27 +7464,27 @@
         <v>3</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H33" s="72" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="I33" s="76" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>3</v>
@@ -7412,23 +7493,23 @@
         <v>3</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="H34" s="72"/>
       <c r="I34" s="76"/>
     </row>
     <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>3</v>
@@ -7437,25 +7518,25 @@
         <v>3</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G35" s="76" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H35" s="72"/>
       <c r="I35" s="76" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>3</v>
@@ -7464,25 +7545,25 @@
         <v>3</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G36" s="76" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="H36" s="72"/>
       <c r="I36" s="76" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>3</v>
@@ -7491,81 +7572,81 @@
         <v>3</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G37" s="76" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="H37" s="72"/>
       <c r="I37" s="76" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>463</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>470</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>476</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>41</v>
@@ -7573,13 +7654,13 @@
     </row>
     <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>471</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>477</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>41</v>
@@ -7587,13 +7668,13 @@
     </row>
     <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>472</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>478</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>41</v>
@@ -7601,13 +7682,13 @@
     </row>
     <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>41</v>
@@ -7615,13 +7696,13 @@
     </row>
     <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>41</v>
@@ -7629,12 +7710,12 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>3</v>
@@ -7643,27 +7724,27 @@
         <v>3</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>3</v>
@@ -7672,85 +7753,85 @@
         <v>3</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>506</v>
-      </c>
       <c r="E52" s="5" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>507</v>
-      </c>
       <c r="E53" s="5" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>3</v>
@@ -7759,36 +7840,36 @@
         <v>3</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>3</v>
@@ -7797,50 +7878,50 @@
         <v>3</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="94" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D59" s="94" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E59" s="94" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F59" s="94" t="s">
         <v>41</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -7849,13 +7930,13 @@
       <c r="E60" s="94"/>
       <c r="F60" s="94"/>
       <c r="G60" s="5" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -7864,13 +7945,13 @@
       <c r="E61" s="94"/>
       <c r="F61" s="94"/>
       <c r="G61" s="5" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -7903,8 +7984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7922,7 +8003,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -7937,19 +8018,19 @@
         <v>37</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>17</v>
@@ -7957,12 +8038,12 @@
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="72" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B3" s="72" t="s">
         <v>3</v>
@@ -7971,39 +8052,39 @@
         <v>3</v>
       </c>
       <c r="D3" s="72" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="E3" s="78" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F3" s="72" t="s">
         <v>41</v>
       </c>
       <c r="H3" s="74" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="I3" s="72" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="72" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="73" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="E4" s="72" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F4" s="72" t="s">
         <v>41</v>
       </c>
       <c r="H4" s="74" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="I4" s="74" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -8020,7 +8101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -8038,22 +8119,22 @@
   <sheetData>
     <row r="1" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>38</v>
@@ -8061,7 +8142,7 @@
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
@@ -8073,13 +8154,13 @@
         <v>42</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -8087,13 +8168,13 @@
         <v>42</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -8101,13 +8182,13 @@
         <v>42</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -8115,13 +8196,13 @@
         <v>42</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -8129,13 +8210,13 @@
         <v>42</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -8143,13 +8224,13 @@
         <v>42</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -8157,7 +8238,7 @@
         <v>42</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>41</v>
@@ -8168,7 +8249,7 @@
         <v>42</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>41</v>
@@ -8179,7 +8260,7 @@
         <v>42</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>41</v>
@@ -8190,7 +8271,7 @@
         <v>42</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>41</v>
@@ -8201,7 +8282,7 @@
         <v>42</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>41</v>
@@ -8212,7 +8293,7 @@
         <v>42</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>41</v>
@@ -8223,7 +8304,7 @@
         <v>42</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>41</v>
@@ -8234,7 +8315,7 @@
         <v>42</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>41</v>
@@ -8245,7 +8326,7 @@
         <v>42</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>41</v>
@@ -8259,30 +8340,33 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15:XFD29"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="46.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11" style="5" customWidth="1"/>
     <col min="4" max="4" width="23.140625" style="5" customWidth="1"/>
     <col min="5" max="5" width="35.42578125" style="5" customWidth="1"/>
     <col min="6" max="6" width="16.140625" style="5" customWidth="1"/>
     <col min="7" max="7" width="47.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="32" style="5" customWidth="1"/>
-    <col min="9" max="9" width="52.7109375" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="5"/>
+    <col min="8" max="8" width="17.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="40" style="5" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="26" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="92" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="91" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="91" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B1" s="91" t="s">
         <v>0</v>
@@ -8297,25 +8381,24 @@
         <v>37</v>
       </c>
       <c r="F1" s="91" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G1" s="91" t="s">
+        <v>556</v>
+      </c>
+      <c r="H1" s="91" t="s">
         <v>562</v>
       </c>
-      <c r="H1" s="91" t="s">
-        <v>568</v>
-      </c>
       <c r="I1" s="91" t="s">
-        <v>563</v>
-      </c>
-      <c r="J1" s="91"/>
+        <v>557</v>
+      </c>
       <c r="K1" s="91" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -8328,9 +8411,9 @@
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -8339,174 +8422,179 @@
         <v>3</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>560</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>565</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>587</v>
-      </c>
+        <v>581</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="38"/>
     </row>
     <row r="15" spans="1:11" s="91" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="91" t="s">
-        <v>617</v>
+        <v>592</v>
       </c>
       <c r="H15" s="91" t="s">
-        <v>618</v>
+        <v>596</v>
       </c>
       <c r="I15" s="91" t="s">
-        <v>619</v>
+        <v>597</v>
       </c>
       <c r="J15" s="91" t="s">
-        <v>620</v>
+        <v>595</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="72" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="73" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="B16" s="72" t="s">
         <v>3</v>
@@ -8515,276 +8603,403 @@
         <v>3</v>
       </c>
       <c r="D16" s="72" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="E16" s="72" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F16" s="72" t="s">
         <v>41</v>
       </c>
       <c r="G16" s="72" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H16" s="72" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I16" s="72" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="72" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="73" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="D17" s="72" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="E17" s="72" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F17" s="72" t="s">
         <v>41</v>
       </c>
       <c r="G17" s="72" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H17" s="72" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I17" s="72" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="72" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="73" t="s">
-        <v>625</v>
+        <v>604</v>
       </c>
       <c r="D18" s="72" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="E18" s="72" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F18" s="72" t="s">
         <v>41</v>
       </c>
       <c r="G18" s="72" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H18" s="72" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="I18" s="72" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="72" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="73" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="D19" s="72" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="E19" s="72" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F19" s="72" t="s">
         <v>41</v>
       </c>
       <c r="G19" s="72" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="H19" s="72" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="I19" s="72" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="72" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="73" t="s">
-        <v>635</v>
+        <v>605</v>
       </c>
       <c r="D20" s="72" t="s">
-        <v>636</v>
+        <v>612</v>
       </c>
       <c r="E20" s="72" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F20" s="72" t="s">
         <v>41</v>
       </c>
       <c r="G20" s="72" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="H20" s="72" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="I20" s="72" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="72" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="73" t="s">
-        <v>640</v>
+        <v>606</v>
       </c>
       <c r="D21" s="72" t="s">
-        <v>641</v>
+        <v>613</v>
       </c>
       <c r="E21" s="72" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F21" s="72" t="s">
         <v>41</v>
       </c>
       <c r="G21" s="72" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="H21" s="72" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="I21" s="72" t="s">
-        <v>644</v>
+        <v>620</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="72" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="73" t="s">
-        <v>645</v>
+        <v>607</v>
       </c>
       <c r="D22" s="72" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="E22" s="72" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F22" s="72" t="s">
         <v>41</v>
       </c>
       <c r="G22" s="72" t="s">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="H22" s="72" t="s">
-        <v>648</v>
+        <v>629</v>
       </c>
       <c r="I22" s="72" t="s">
-        <v>649</v>
+        <v>621</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="72" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="73" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D23" s="72" t="s">
-        <v>169</v>
-      </c>
-      <c r="E23" s="95" t="s">
-        <v>402</v>
+        <v>164</v>
+      </c>
+      <c r="E23" s="92" t="s">
+        <v>396</v>
       </c>
       <c r="F23" s="72" t="s">
         <v>41</v>
       </c>
       <c r="G23" s="74" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="72" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="73" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="K25" s="38" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="72" t="s">
+        <v>628</v>
+      </c>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72" t="s">
+        <v>621</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="10"/>
+    </row>
+    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="D24" s="72" t="s">
-        <v>651</v>
-      </c>
-      <c r="E24" s="72" t="s">
-        <v>652</v>
-      </c>
-      <c r="F24" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="72" t="s">
-        <v>138</v>
-      </c>
-      <c r="H24" s="72" t="s">
-        <v>137</v>
-      </c>
-      <c r="I24" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="J24" s="72" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="72" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="73" t="s">
+      <c r="F34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="D25" s="72" t="s">
+      <c r="E35" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="E25" s="72" t="s">
-        <v>656</v>
-      </c>
-      <c r="F25" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="72" t="s">
-        <v>138</v>
-      </c>
-      <c r="H25" s="72" t="s">
-        <v>137</v>
-      </c>
-      <c r="I25" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="K25" s="74" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="72" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="73" t="s">
-        <v>657</v>
-      </c>
-      <c r="D26" s="72" t="s">
-        <v>658</v>
-      </c>
-      <c r="F26" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="72" t="s">
-        <v>647</v>
-      </c>
-      <c r="I26" s="72" t="s">
-        <v>649</v>
-      </c>
-      <c r="J26" s="72" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="72" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A27" s="73" t="s">
-        <v>660</v>
-      </c>
-      <c r="D27" s="72" t="s">
-        <v>658</v>
-      </c>
-      <c r="F27" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="72" t="s">
-        <v>661</v>
-      </c>
-      <c r="I27" s="72" t="s">
+      <c r="E36" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="J27" s="72" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="F36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G8" r:id="rId1"/>
@@ -8799,6 +9014,7 @@
     <hyperlink ref="K25" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
+  <legacyDrawing r:id="rId12"/>
 </worksheet>
 </file>
--- a/WebsiteToolbox/testData.xlsx
+++ b/WebsiteToolbox/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2565" windowWidth="12585" windowHeight="6270" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2565" windowWidth="12585" windowHeight="6270" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="689">
   <si>
     <t>Username</t>
   </si>
@@ -2286,6 +2286,24 @@
   </si>
   <si>
     <t>Insert text for emotion in subject field and verify emotions on floating header on post page after adding new topic</t>
+  </si>
+  <si>
+    <t>Edit Topic's Message  and verify modified message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post new topic from category tab through automation script </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Edit message</t>
+  </si>
+  <si>
+    <t>Edit Topic from floating header  and verify modified name of Topic</t>
+  </si>
+  <si>
+    <t>Testing Modified</t>
+  </si>
+  <si>
+    <t>Delete Topic and verify deleted topic in Topic listing page</t>
   </si>
 </sst>
 </file>
@@ -3533,10 +3551,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3848,7 +3866,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>57</v>
       </c>
@@ -3921,6 +3939,69 @@
       </c>
       <c r="H15" s="5" t="s">
         <v>586</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6907,7 +6988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
